--- a/PTBR/Lang/PTBR/Data/chara_talk.xlsx
+++ b/PTBR/Lang/PTBR/Data/chara_talk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812FB25C-7DF0-4284-AA67-C7DE4CC21F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B9B91-7C5A-462E-9548-BFABC91DD6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="258">
   <si>
     <t>id</t>
   </si>
@@ -1246,6 +1246,81 @@
     <t xml:space="preserve">Eu queria ter coragem para mudar o que precisa ser mudado.  
 Por quanto tempo ainda conseguirei continuar?  
 Vamos tornar este mundo um lugar um pouco melhor, que tal?  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SpMeteor</t>
+    </r>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>phrase_ActSwarm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ActBladeStorm</t>
+    </r>
+  </si>
+  <si>
+    <t>Tempestade de Lâminas!
+Vou te cortar em pedaços!
+Este é o fim!</t>
+  </si>
+  <si>
+    <t>Meteoro!
+Chovam, lágrimas das estrelas!
+Venha, chama do fim. &amp;...Meteoro!
+Estrelas, atendam à minha voz...Meteoro!
+Não há mais desejos neste céu, &amp;nem misericórdia nesta terra. &amp;—então caiam! Meteoro!</t>
+  </si>
+  <si>
+    <t>Ba～rril♪
+Barril!
+Barri~l!
+Barril.</t>
+  </si>
+  <si>
+    <t>Enxame!
+...Enxame!
+Sumam!
+Gravem isso em suas almas! Enxame!
+Dancem!</t>
   </si>
 </sst>
 </file>
@@ -1558,13 +1633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM116"/>
+  <dimension ref="A1:CM120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S94" sqref="S94"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -1853,7 +1928,7 @@
       <c r="AU6"/>
       <c r="AV6"/>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" ht="66">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1890,7 +1965,7 @@
       <c r="AU7"/>
       <c r="AV7"/>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" ht="99">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1927,7 +2002,7 @@
       <c r="AU8"/>
       <c r="AV8"/>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" ht="99">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1964,7 +2039,7 @@
       <c r="AU9"/>
       <c r="AV9"/>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" ht="99">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2075,7 @@
       <c r="AU10"/>
       <c r="AV10"/>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" ht="153">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2036,7 +2111,7 @@
       <c r="AU11"/>
       <c r="AV11"/>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" ht="178.5">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2073,7 +2148,7 @@
       <c r="AU12"/>
       <c r="AV12"/>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" ht="66">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2109,7 +2184,7 @@
       <c r="AU13"/>
       <c r="AV13"/>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" ht="165">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2146,7 +2221,7 @@
       <c r="AU14"/>
       <c r="AV14"/>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" ht="198">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2182,7 +2257,7 @@
       <c r="AU15"/>
       <c r="AV15"/>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" ht="33">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2327,7 +2402,7 @@
       <c r="AU19"/>
       <c r="AV19"/>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" ht="214.5">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2363,7 +2438,7 @@
       <c r="AU20"/>
       <c r="AV20"/>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" ht="297">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -2399,7 +2474,7 @@
       <c r="AU21"/>
       <c r="AV21"/>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" ht="297">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -2435,7 +2510,7 @@
       <c r="AU22"/>
       <c r="AV22"/>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" ht="148.5">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2471,7 +2546,7 @@
       <c r="AU23"/>
       <c r="AV23"/>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" ht="49.5">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2543,7 +2618,7 @@
       <c r="AU25"/>
       <c r="AV25"/>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" ht="132">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2579,7 +2654,7 @@
       <c r="AU26"/>
       <c r="AV26"/>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" ht="49.5">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -2796,7 +2871,7 @@
       <c r="AU32"/>
       <c r="AV32"/>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" ht="33">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2832,7 +2907,7 @@
       <c r="AU33"/>
       <c r="AV33"/>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" ht="33">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -2904,7 +2979,7 @@
       <c r="AU35"/>
       <c r="AV35"/>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" ht="49.5">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2940,7 +3015,7 @@
       <c r="AU36"/>
       <c r="AV36"/>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" ht="66">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -2976,7 +3051,7 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" ht="132">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -3012,7 +3087,7 @@
       <c r="AU38"/>
       <c r="AV38"/>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" ht="115.5">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -3048,7 +3123,7 @@
       <c r="AU39"/>
       <c r="AV39"/>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" ht="115.5">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -4833,7 +4908,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="66">
+    <row r="113" spans="1:49" ht="66">
       <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
@@ -4841,7 +4916,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="49.5">
+    <row r="114" spans="1:49" ht="49.5">
       <c r="A114" s="1" t="s">
         <v>133</v>
       </c>
@@ -4849,7 +4924,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="49.5">
+    <row r="115" spans="1:49" ht="49.5">
       <c r="A115" s="1" t="s">
         <v>134</v>
       </c>
@@ -4857,13 +4932,121 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="99">
+    <row r="116" spans="1:49" ht="99">
       <c r="A116" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>231</v>
       </c>
+    </row>
+    <row r="117" spans="1:49" customFormat="1" ht="99">
+      <c r="A117" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="AW117" s="1"/>
+    </row>
+    <row r="118" spans="1:49" customFormat="1" ht="66">
+      <c r="A118" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="AW118" s="1"/>
+    </row>
+    <row r="119" spans="1:49" customFormat="1" ht="82.5">
+      <c r="A119" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="AW119" s="1"/>
+    </row>
+    <row r="120" spans="1:49" customFormat="1" ht="49.5">
+      <c r="A120" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="AW120" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:T115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/PTBR/Lang/PTBR/Data/chara_talk.xlsx
+++ b/PTBR/Lang/PTBR/Data/chara_talk.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD0B124-C97F-4B0F-BDBE-5AD6CB17DA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B035E7-9639-4E6A-87B6-3AE49472DD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="2565" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$2:$T$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$2:$T$120</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="267">
   <si>
     <t>id</t>
   </si>
@@ -1322,12 +1322,92 @@
 Gravem isso em suas almas! Enxame!
 Dancem!</t>
   </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SpMeteor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ActBladeStorm</t>
+    </r>
+  </si>
+  <si>
+    <t>Bal~de♪
+Balde!
+Balde—
+Balde</t>
+  </si>
+  <si>
+    <t>Golpe em massa!
+...Golpe em massa!
+Desapareça!
+Prove esta técnica! Golpe em massa!
+Dance comigo!</t>
+  </si>
+  <si>
+    <t>Golpe supremo!
+Corte total!
+E assim chega ao fim{。}！</t>
+  </si>
+  <si>
+    <t>Botar ovo！
+Rápido! Botou ovo!
+Bote o ovo, rápido！</t>
+  </si>
+  <si>
+    <t>Feitiço de Meteoro!
+Chorem sobre nós, lágrimas das estrelas!
+Chamas do fim, desçam agora... Feitiço de Meteoro！
+Ó astros, atendam ao meu chamado... Feitiço de Meteoro！
+Se o céu não traz esperança, e a terra não tem compaixão —— então que caia, Feitiço de Meteoro！</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1346,6 +1426,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -1476,7 +1563,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>523440</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1633,13 +1720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM120"/>
+  <dimension ref="A1:CM125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="BU4" sqref="BU4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -1818,198 +1905,743 @@
       <c r="AU3"/>
       <c r="AV3"/>
     </row>
-    <row r="4" spans="1:48" ht="132">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:48" customFormat="1" ht="49.5">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" t="s">
+        <v>259</v>
+      </c>
+      <c r="M4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>259</v>
+      </c>
+      <c r="R4" t="s">
+        <v>259</v>
+      </c>
+      <c r="S4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T4" t="s">
+        <v>259</v>
+      </c>
+      <c r="U4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V4" t="s">
+        <v>259</v>
+      </c>
+      <c r="W4" t="s">
+        <v>259</v>
+      </c>
+      <c r="X4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" customFormat="1" ht="99">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M5" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O5" t="s">
+        <v>259</v>
+      </c>
+      <c r="P5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R5" t="s">
+        <v>259</v>
+      </c>
+      <c r="S5" t="s">
+        <v>259</v>
+      </c>
+      <c r="T5" t="s">
+        <v>259</v>
+      </c>
+      <c r="U5" t="s">
+        <v>259</v>
+      </c>
+      <c r="V5" t="s">
+        <v>259</v>
+      </c>
+      <c r="W5" t="s">
+        <v>259</v>
+      </c>
+      <c r="X5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" customFormat="1" ht="66">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" t="s">
+        <v>259</v>
+      </c>
+      <c r="N6" t="s">
+        <v>259</v>
+      </c>
+      <c r="O6" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>259</v>
+      </c>
+      <c r="R6" t="s">
+        <v>259</v>
+      </c>
+      <c r="S6" t="s">
+        <v>259</v>
+      </c>
+      <c r="T6" t="s">
+        <v>259</v>
+      </c>
+      <c r="U6" t="s">
+        <v>259</v>
+      </c>
+      <c r="V6" t="s">
+        <v>259</v>
+      </c>
+      <c r="W6" t="s">
+        <v>259</v>
+      </c>
+      <c r="X6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" customFormat="1" ht="82.5">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" t="s">
+        <v>259</v>
+      </c>
+      <c r="N7" t="s">
+        <v>259</v>
+      </c>
+      <c r="O7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>259</v>
+      </c>
+      <c r="R7" t="s">
+        <v>259</v>
+      </c>
+      <c r="S7" t="s">
+        <v>259</v>
+      </c>
+      <c r="T7" t="s">
+        <v>259</v>
+      </c>
+      <c r="U7" t="s">
+        <v>259</v>
+      </c>
+      <c r="V7" t="s">
+        <v>259</v>
+      </c>
+      <c r="W7" t="s">
+        <v>259</v>
+      </c>
+      <c r="X7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" customFormat="1" ht="49.5">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" t="s">
+        <v>259</v>
+      </c>
+      <c r="N8" t="s">
+        <v>259</v>
+      </c>
+      <c r="O8" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>259</v>
+      </c>
+      <c r="R8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T8" t="s">
+        <v>259</v>
+      </c>
+      <c r="U8" t="s">
+        <v>259</v>
+      </c>
+      <c r="V8" t="s">
+        <v>259</v>
+      </c>
+      <c r="W8" t="s">
+        <v>259</v>
+      </c>
+      <c r="X8" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="132">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
-      <c r="AP4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="AU4"/>
-      <c r="AV4"/>
-    </row>
-    <row r="5" spans="1:48" ht="99">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
-      <c r="AP5"/>
-      <c r="AQ5"/>
-      <c r="AR5"/>
-      <c r="AS5"/>
-      <c r="AT5"/>
-      <c r="AU5"/>
-      <c r="AV5"/>
-    </row>
-    <row r="6" spans="1:48">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
-    </row>
-    <row r="7" spans="1:48" ht="66">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-    </row>
-    <row r="8" spans="1:48" ht="99">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-    </row>
-    <row r="9" spans="1:48" ht="99">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="3"/>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
@@ -2041,11 +2673,12 @@
     </row>
     <row r="10" spans="1:48" ht="99">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
@@ -2075,13 +2708,14 @@
       <c r="AU10"/>
       <c r="AV10"/>
     </row>
-    <row r="11" spans="1:48" ht="153">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>210</v>
-      </c>
+    <row r="11" spans="1:48">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
@@ -2111,14 +2745,14 @@
       <c r="AU11"/>
       <c r="AV11"/>
     </row>
-    <row r="12" spans="1:48" ht="178.5">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="4"/>
+    <row r="12" spans="1:48" ht="66">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
@@ -2148,13 +2782,14 @@
       <c r="AU12"/>
       <c r="AV12"/>
     </row>
-    <row r="13" spans="1:48" ht="66">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+    <row r="13" spans="1:48" ht="99">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -2184,12 +2819,12 @@
       <c r="AU13"/>
       <c r="AV13"/>
     </row>
-    <row r="14" spans="1:48" ht="165">
+    <row r="14" spans="1:48" ht="99">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3"/>
       <c r="U14"/>
@@ -2221,12 +2856,12 @@
       <c r="AU14"/>
       <c r="AV14"/>
     </row>
-    <row r="15" spans="1:48" ht="198">
+    <row r="15" spans="1:48" ht="99">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
@@ -2257,12 +2892,12 @@
       <c r="AU15"/>
       <c r="AV15"/>
     </row>
-    <row r="16" spans="1:48" ht="33">
+    <row r="16" spans="1:48" ht="153">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="U16"/>
       <c r="V16"/>
@@ -2293,13 +2928,14 @@
       <c r="AU16"/>
       <c r="AV16"/>
     </row>
-    <row r="17" spans="1:48" ht="102">
+    <row r="17" spans="1:48" ht="178.5">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>214</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -2331,10 +2967,10 @@
     </row>
     <row r="18" spans="1:48" ht="66">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U18"/>
       <c r="V18"/>
@@ -2365,12 +3001,12 @@
       <c r="AU18"/>
       <c r="AV18"/>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" ht="165">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C19" s="3"/>
       <c r="U19"/>
@@ -2402,12 +3038,12 @@
       <c r="AU19"/>
       <c r="AV19"/>
     </row>
-    <row r="20" spans="1:48" ht="214.5">
+    <row r="20" spans="1:48" ht="198">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="U20"/>
       <c r="V20"/>
@@ -2438,12 +3074,12 @@
       <c r="AU20"/>
       <c r="AV20"/>
     </row>
-    <row r="21" spans="1:48" ht="297">
+    <row r="21" spans="1:48" ht="33">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
@@ -2474,12 +3110,12 @@
       <c r="AU21"/>
       <c r="AV21"/>
     </row>
-    <row r="22" spans="1:48" ht="297">
+    <row r="22" spans="1:48" ht="102">
       <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>148</v>
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="U22"/>
       <c r="V22"/>
@@ -2510,12 +3146,12 @@
       <c r="AU22"/>
       <c r="AV22"/>
     </row>
-    <row r="23" spans="1:48" ht="148.5">
+    <row r="23" spans="1:48" ht="66">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="U23"/>
       <c r="V23"/>
@@ -2546,13 +3182,14 @@
       <c r="AU23"/>
       <c r="AV23"/>
     </row>
-    <row r="24" spans="1:48" ht="49.5">
+    <row r="24" spans="1:48">
       <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
@@ -2582,12 +3219,12 @@
       <c r="AU24"/>
       <c r="AV24"/>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" ht="214.5">
       <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="U25"/>
       <c r="V25"/>
@@ -2618,12 +3255,12 @@
       <c r="AU25"/>
       <c r="AV25"/>
     </row>
-    <row r="26" spans="1:48" ht="132">
+    <row r="26" spans="1:48" ht="297">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="U26"/>
       <c r="V26"/>
@@ -2654,12 +3291,12 @@
       <c r="AU26"/>
       <c r="AV26"/>
     </row>
-    <row r="27" spans="1:48" ht="49.5">
+    <row r="27" spans="1:48" ht="297">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="U27"/>
       <c r="V27"/>
@@ -2690,12 +3327,12 @@
       <c r="AU27"/>
       <c r="AV27"/>
     </row>
-    <row r="28" spans="1:48" ht="49.5">
+    <row r="28" spans="1:48" ht="148.5">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
@@ -2726,12 +3363,12 @@
       <c r="AU28"/>
       <c r="AV28"/>
     </row>
-    <row r="29" spans="1:48" ht="82.5">
+    <row r="29" spans="1:48" ht="49.5">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U29"/>
       <c r="V29"/>
@@ -2762,12 +3399,12 @@
       <c r="AU29"/>
       <c r="AV29"/>
     </row>
-    <row r="30" spans="1:48" ht="49.5">
+    <row r="30" spans="1:48">
       <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>217</v>
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="U30"/>
       <c r="V30"/>
@@ -2798,14 +3435,13 @@
       <c r="AU30"/>
       <c r="AV30"/>
     </row>
-    <row r="31" spans="1:48" ht="165">
+    <row r="31" spans="1:48" ht="132">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>216</v>
+      </c>
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
@@ -2835,12 +3471,12 @@
       <c r="AU31"/>
       <c r="AV31"/>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" ht="49.5">
       <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="U32"/>
       <c r="V32"/>
@@ -2871,12 +3507,12 @@
       <c r="AU32"/>
       <c r="AV32"/>
     </row>
-    <row r="33" spans="1:48" ht="33">
+    <row r="33" spans="1:48" ht="49.5">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U33"/>
       <c r="V33"/>
@@ -2907,12 +3543,12 @@
       <c r="AU33"/>
       <c r="AV33"/>
     </row>
-    <row r="34" spans="1:48" ht="33">
+    <row r="34" spans="1:48" ht="82.5">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="U34"/>
       <c r="V34"/>
@@ -2943,12 +3579,12 @@
       <c r="AU34"/>
       <c r="AV34"/>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" ht="49.5">
       <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>219</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="U35"/>
       <c r="V35"/>
@@ -2979,13 +3615,14 @@
       <c r="AU35"/>
       <c r="AV35"/>
     </row>
-    <row r="36" spans="1:48" ht="49.5">
+    <row r="36" spans="1:48" ht="165">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>156</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
@@ -3015,12 +3652,12 @@
       <c r="AU36"/>
       <c r="AV36"/>
     </row>
-    <row r="37" spans="1:48" ht="66">
+    <row r="37" spans="1:48">
       <c r="A37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>157</v>
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="U37"/>
       <c r="V37"/>
@@ -3051,12 +3688,12 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="1:48" ht="132">
+    <row r="38" spans="1:48" ht="33">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U38"/>
       <c r="V38"/>
@@ -3087,12 +3724,12 @@
       <c r="AU38"/>
       <c r="AV38"/>
     </row>
-    <row r="39" spans="1:48" ht="115.5">
+    <row r="39" spans="1:48" ht="33">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="U39"/>
       <c r="V39"/>
@@ -3123,12 +3760,12 @@
       <c r="AU39"/>
       <c r="AV39"/>
     </row>
-    <row r="40" spans="1:48" ht="115.5">
+    <row r="40" spans="1:48">
       <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>220</v>
+        <v>51</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="U40"/>
       <c r="V40"/>
@@ -3159,12 +3796,12 @@
       <c r="AU40"/>
       <c r="AV40"/>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" ht="49.5">
       <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>52</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -3195,14 +3832,13 @@
       <c r="AU41"/>
       <c r="AV41"/>
     </row>
-    <row r="42" spans="1:48" ht="214.5">
+    <row r="42" spans="1:48" ht="66">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>157</v>
+      </c>
       <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
@@ -3232,12 +3868,12 @@
       <c r="AU42"/>
       <c r="AV42"/>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" ht="132">
       <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>54</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="U43"/>
       <c r="V43"/>
@@ -3268,12 +3904,12 @@
       <c r="AU43"/>
       <c r="AV43"/>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" ht="115.5">
       <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>162</v>
+        <v>55</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="U44"/>
       <c r="V44"/>
@@ -3304,12 +3940,12 @@
       <c r="AU44"/>
       <c r="AV44"/>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" ht="115.5">
       <c r="A45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>163</v>
+        <v>56</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="U45"/>
       <c r="V45"/>
@@ -3342,10 +3978,10 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U46"/>
       <c r="V46"/>
@@ -3376,13 +4012,14 @@
       <c r="AU46"/>
       <c r="AV46"/>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" ht="214.5">
       <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="3"/>
       <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
@@ -3412,12 +4049,12 @@
       <c r="AU47"/>
       <c r="AV47"/>
     </row>
-    <row r="48" spans="1:48" ht="49.5">
+    <row r="48" spans="1:48">
       <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>168</v>
+        <v>59</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="U48"/>
       <c r="V48"/>
@@ -3450,10 +4087,10 @@
     </row>
     <row r="49" spans="1:48">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U49"/>
       <c r="V49"/>
@@ -3484,12 +4121,12 @@
       <c r="AU49"/>
       <c r="AV49"/>
     </row>
-    <row r="50" spans="1:48" ht="33">
+    <row r="50" spans="1:48">
       <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>167</v>
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="U50"/>
       <c r="V50"/>
@@ -3522,7 +4159,7 @@
     </row>
     <row r="51" spans="1:48">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>163</v>
@@ -3558,10 +4195,10 @@
     </row>
     <row r="52" spans="1:48">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U52"/>
       <c r="V52"/>
@@ -3592,12 +4229,12 @@
       <c r="AU52"/>
       <c r="AV52"/>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" ht="49.5">
       <c r="A53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>163</v>
+        <v>65</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="U53"/>
       <c r="V53"/>
@@ -3628,12 +4265,12 @@
       <c r="AU53"/>
       <c r="AV53"/>
     </row>
-    <row r="54" spans="1:48" ht="66">
+    <row r="54" spans="1:48">
       <c r="A54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>221</v>
+        <v>66</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="U54"/>
       <c r="V54"/>
@@ -3664,9 +4301,12 @@
       <c r="AU54"/>
       <c r="AV54"/>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" ht="33">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="U55"/>
       <c r="V55"/>
@@ -3697,12 +4337,12 @@
       <c r="AU55"/>
       <c r="AV55"/>
     </row>
-    <row r="56" spans="1:48" ht="148.5">
+    <row r="56" spans="1:48">
       <c r="A56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>166</v>
+        <v>68</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
@@ -3735,10 +4375,10 @@
     </row>
     <row r="57" spans="1:48">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="U57"/>
       <c r="V57"/>
@@ -3771,10 +4411,10 @@
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="U58"/>
       <c r="V58"/>
@@ -3805,12 +4445,12 @@
       <c r="AU58"/>
       <c r="AV58"/>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" ht="66">
       <c r="A59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>173</v>
+        <v>71</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="U59"/>
       <c r="V59"/>
@@ -3841,12 +4481,9 @@
       <c r="AU59"/>
       <c r="AV59"/>
     </row>
-    <row r="60" spans="1:48" ht="66">
+    <row r="60" spans="1:48">
       <c r="A60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="U60"/>
       <c r="V60"/>
@@ -3877,12 +4514,12 @@
       <c r="AU60"/>
       <c r="AV60"/>
     </row>
-    <row r="61" spans="1:48" ht="49.5">
+    <row r="61" spans="1:48" ht="148.5">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="U61"/>
       <c r="V61"/>
@@ -3913,12 +4550,12 @@
       <c r="AU61"/>
       <c r="AV61"/>
     </row>
-    <row r="62" spans="1:48" ht="115.5">
+    <row r="62" spans="1:48">
       <c r="A62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>179</v>
+        <v>74</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="U62"/>
       <c r="V62"/>
@@ -3949,12 +4586,12 @@
       <c r="AU62"/>
       <c r="AV62"/>
     </row>
-    <row r="63" spans="1:48" ht="33">
+    <row r="63" spans="1:48">
       <c r="A63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>180</v>
+        <v>75</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="U63"/>
       <c r="V63"/>
@@ -3985,12 +4622,12 @@
       <c r="AU63"/>
       <c r="AV63"/>
     </row>
-    <row r="64" spans="1:48" ht="148.5">
+    <row r="64" spans="1:48">
       <c r="A64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>222</v>
+        <v>76</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="U64"/>
       <c r="V64"/>
@@ -4021,12 +4658,12 @@
       <c r="AU64"/>
       <c r="AV64"/>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" ht="66">
       <c r="A65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>181</v>
+        <v>77</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="U65"/>
       <c r="V65"/>
@@ -4057,12 +4694,12 @@
       <c r="AU65"/>
       <c r="AV65"/>
     </row>
-    <row r="66" spans="1:48" ht="66">
+    <row r="66" spans="1:48" ht="49.5">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="U66"/>
       <c r="V66"/>
@@ -4093,12 +4730,12 @@
       <c r="AU66"/>
       <c r="AV66"/>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" ht="115.5">
       <c r="A67" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="U67"/>
       <c r="V67"/>
@@ -4129,12 +4766,12 @@
       <c r="AU67"/>
       <c r="AV67"/>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" ht="33">
       <c r="A68" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="U68"/>
       <c r="V68"/>
@@ -4165,12 +4802,12 @@
       <c r="AU68"/>
       <c r="AV68"/>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" ht="148.5">
       <c r="A69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="U69"/>
       <c r="V69"/>
@@ -4203,10 +4840,10 @@
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="U70"/>
       <c r="V70"/>
@@ -4237,12 +4874,12 @@
       <c r="AU70"/>
       <c r="AV70"/>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" ht="66">
       <c r="A71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="U71"/>
       <c r="V71"/>
@@ -4275,7 +4912,7 @@
     </row>
     <row r="72" spans="1:48">
       <c r="A72" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>62</v>
@@ -4309,12 +4946,12 @@
       <c r="AU72"/>
       <c r="AV72"/>
     </row>
-    <row r="73" spans="1:48" ht="82.5">
+    <row r="73" spans="1:48">
       <c r="A73" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>183</v>
+        <v>85</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="U73"/>
       <c r="V73"/>
@@ -4347,10 +4984,10 @@
     </row>
     <row r="74" spans="1:48">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="U74"/>
       <c r="V74"/>
@@ -4381,12 +5018,12 @@
       <c r="AU74"/>
       <c r="AV74"/>
     </row>
-    <row r="75" spans="1:48" ht="132">
+    <row r="75" spans="1:48">
       <c r="A75" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>184</v>
+        <v>87</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="U75"/>
       <c r="V75"/>
@@ -4419,197 +5056,301 @@
     </row>
     <row r="76" spans="1:48">
       <c r="A76" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
+      <c r="AL76"/>
+      <c r="AM76"/>
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AP76"/>
+      <c r="AQ76"/>
+      <c r="AR76"/>
+      <c r="AS76"/>
+      <c r="AT76"/>
+      <c r="AU76"/>
+      <c r="AV76"/>
     </row>
     <row r="77" spans="1:48">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="78" spans="1:48">
-      <c r="A78" s="3" t="s">
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
+      <c r="AL77"/>
+      <c r="AM77"/>
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AP77"/>
+      <c r="AQ77"/>
+      <c r="AR77"/>
+      <c r="AS77"/>
+      <c r="AT77"/>
+      <c r="AU77"/>
+      <c r="AV77"/>
+    </row>
+    <row r="78" spans="1:48" ht="82.5">
+      <c r="A78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
+      <c r="AL78"/>
+      <c r="AM78"/>
+      <c r="AN78"/>
+      <c r="AO78"/>
+      <c r="AP78"/>
+      <c r="AQ78"/>
+      <c r="AR78"/>
+      <c r="AS78"/>
+      <c r="AT78"/>
+      <c r="AU78"/>
+      <c r="AV78"/>
+    </row>
+    <row r="79" spans="1:48">
+      <c r="A79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
+      <c r="AL79"/>
+      <c r="AM79"/>
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AP79"/>
+      <c r="AQ79"/>
+      <c r="AR79"/>
+      <c r="AS79"/>
+      <c r="AT79"/>
+      <c r="AU79"/>
+      <c r="AV79"/>
+    </row>
+    <row r="80" spans="1:48" ht="132">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
+      <c r="AL80"/>
+      <c r="AM80"/>
+      <c r="AN80"/>
+      <c r="AO80"/>
+      <c r="AP80"/>
+      <c r="AQ80"/>
+      <c r="AR80"/>
+      <c r="AS80"/>
+      <c r="AT80"/>
+      <c r="AU80"/>
+      <c r="AV80"/>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:48" ht="280.5">
-      <c r="A79" s="1" t="s">
+    <row r="84" spans="1:20" ht="280.5">
+      <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
-      <c r="A80" s="1" t="s">
+    <row r="85" spans="1:20">
+      <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="49.5">
-      <c r="A81" s="1" t="s">
+    <row r="86" spans="1:20" ht="49.5">
+      <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="165">
-      <c r="A82" s="1" t="s">
+    <row r="87" spans="1:20" ht="165">
+      <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="99">
-      <c r="A83" s="1" t="s">
+    <row r="88" spans="1:20" ht="99">
+      <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" ht="49.5">
-      <c r="A84" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="82.5">
-      <c r="A85" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="99">
-      <c r="A86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="66">
-      <c r="A87" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-    </row>
-    <row r="88" spans="1:20" ht="363">
-      <c r="A88" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
     </row>
     <row r="89" spans="1:20" ht="49.5">
       <c r="A89" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-    </row>
-    <row r="90" spans="1:20">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="82.5">
       <c r="A90" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="132">
+        <v>102</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="99">
       <c r="A91" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="33">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="66">
       <c r="A92" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="66">
-      <c r="A93" s="1" t="s">
-        <v>110</v>
+        <v>225</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+    </row>
+    <row r="93" spans="1:20" ht="363">
+      <c r="A93" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4630,12 +5371,12 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
     </row>
-    <row r="94" spans="1:20" ht="66">
+    <row r="94" spans="1:20" ht="49.5">
       <c r="A94" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4656,400 +5397,476 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
     </row>
-    <row r="95" spans="1:20" ht="148.5">
+    <row r="95" spans="1:20">
       <c r="A95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="132">
+      <c r="A96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="33">
+      <c r="A97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="66">
+      <c r="A98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+    </row>
+    <row r="99" spans="1:20" ht="66">
+      <c r="A99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+    </row>
+    <row r="100" spans="1:20" ht="148.5">
+      <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M95" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N95" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O95" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="P95" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="Q95" s="3" t="s">
+      <c r="Q100" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="R95" s="3" t="s">
+      <c r="R100" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="S95" s="3" t="s">
+      <c r="S100" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="T95" s="3" t="s">
+      <c r="T100" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="165">
-      <c r="A96" s="1" t="s">
+    <row r="101" spans="1:20" ht="165">
+      <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="181.5">
-      <c r="A97" s="1" t="s">
+    <row r="102" spans="1:20" ht="181.5">
+      <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="33">
-      <c r="A98" s="1" t="s">
+    <row r="103" spans="1:20" ht="33">
+      <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="99">
-      <c r="A99" s="1" t="s">
+    <row r="104" spans="1:20" ht="99">
+      <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B104" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="99">
-      <c r="A100" s="1" t="s">
+    <row r="105" spans="1:20" ht="99">
+      <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B105" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="132">
-      <c r="A101" s="1" t="s">
+    <row r="106" spans="1:20" ht="132">
+      <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="1" t="s">
+    <row r="107" spans="1:20">
+      <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="K107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="L107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="N107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O102" s="1" t="s">
+      <c r="O107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P102" s="1" t="s">
+      <c r="P107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q102" s="1" t="s">
+      <c r="Q107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R102" s="1" t="s">
+      <c r="R107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S102" s="1" t="s">
+      <c r="S107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T102" s="1" t="s">
+      <c r="T107" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="99">
-      <c r="A103" s="1" t="s">
+    <row r="108" spans="1:20" ht="99">
+      <c r="A108" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="66">
-      <c r="A104" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="148.5">
-      <c r="A107" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="49.5">
-      <c r="A108" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="66">
       <c r="A109" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="148.5">
+      <c r="A112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:49" ht="49.5">
+      <c r="A113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:49" ht="66">
+      <c r="A114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="66">
-      <c r="A110" s="1" t="s">
+    <row r="115" spans="1:49" ht="66">
+      <c r="A115" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="148.5">
-      <c r="A111" s="1" t="s">
+    <row r="116" spans="1:49" ht="148.5">
+      <c r="A116" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="99">
-      <c r="A112" s="1" t="s">
+    <row r="117" spans="1:49" ht="99">
+      <c r="A117" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:49" ht="66">
-      <c r="A113" s="1" t="s">
+    <row r="118" spans="1:49" ht="66">
+      <c r="A118" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:49" ht="49.5">
-      <c r="A114" s="1" t="s">
+    <row r="119" spans="1:49" ht="49.5">
+      <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B119" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:49" ht="49.5">
-      <c r="A115" s="1" t="s">
+    <row r="120" spans="1:49" ht="49.5">
+      <c r="A120" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B120" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="1:49" ht="99">
-      <c r="A116" s="1" t="s">
+    <row r="121" spans="1:49" ht="99">
+      <c r="A121" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:49" customFormat="1" ht="99">
-      <c r="A117" s="1" t="s">
+    <row r="122" spans="1:49" customFormat="1" ht="99">
+      <c r="A122" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="AW117" s="1"/>
-    </row>
-    <row r="118" spans="1:49" customFormat="1" ht="66">
-      <c r="A118" s="1" t="s">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="AW122" s="1"/>
+    </row>
+    <row r="123" spans="1:49" customFormat="1" ht="66">
+      <c r="A123" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="AW118" s="1"/>
-    </row>
-    <row r="119" spans="1:49" customFormat="1" ht="82.5">
-      <c r="A119" s="1" t="s">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="AW123" s="1"/>
+    </row>
+    <row r="124" spans="1:49" customFormat="1" ht="82.5">
+      <c r="A124" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="AW119" s="1"/>
-    </row>
-    <row r="120" spans="1:49" customFormat="1" ht="49.5">
-      <c r="A120" s="1" t="s">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="AW124" s="1"/>
+    </row>
+    <row r="125" spans="1:49" customFormat="1" ht="49.5">
+      <c r="A125" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="AW120" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="AW125" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:T120" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>

--- a/PTBR/Lang/PTBR/Data/chara_talk.xlsx
+++ b/PTBR/Lang/PTBR/Data/chara_talk.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B035E7-9639-4E6A-87B6-3AE49472DD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCDA229-C6B8-404D-B7B0-1020E1B60E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2565" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$2:$T$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$2:$T$124</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="275">
   <si>
     <t>id</t>
   </si>
@@ -1351,28 +1351,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>phrase_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ActBladeStorm</t>
-    </r>
-  </si>
-  <si>
     <t>Bal~de♪
 Balde!
 Balde—
@@ -1386,11 +1364,6 @@
 Dance comigo!</t>
   </si>
   <si>
-    <t>Golpe supremo!
-Corte total!
-E assim chega ao fim{。}！</t>
-  </si>
-  <si>
     <t>Botar ovo！
 Rápido! Botou ovo!
 Bote o ovo, rápido！</t>
@@ -1402,12 +1375,57 @@
 Ó astros, atendam ao meu chamado... Feitiço de Meteoro！
 Se o céu não traz esperança, e a terra não tem compaixão —— então que caia, Feitiço de Meteoro！</t>
   </si>
+  <si>
+    <t>unlock_stairs_nasu</t>
+  </si>
+  <si>
+    <t>sniff</t>
+  </si>
+  <si>
+    <t>Deixe comigo!</t>
+  </si>
+  <si>
+    <t>Funfa~!
+Funfa funfa!
+Ahhh...!
+Mmm~!
+Nnnngh...!</t>
+  </si>
+  <si>
+    <t>foodBored</t>
+  </si>
+  <si>
+    <t>Isso de novo?
+Estou entediado disso.
+Sempre isso.
+Estou cansado de comer isso.</t>
+  </si>
+  <si>
+    <t>foodNice</t>
+  </si>
+  <si>
+    <t>Gostoso.
+Esse aqui é bom.
+Gosto disso.
+O sabor traz lembranças.
+Faz tempo.
+Nada mal.</t>
+  </si>
+  <si>
+    <t>pervert4</t>
+  </si>
+  <si>
+    <t>Que pequeno pervertido desavergonhado você é.
+Ora, ora... olha só para você.
+Ora ora...
+Pervertido. Fica aí!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1426,13 +1444,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -1457,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1476,6 +1487,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1504,8 +1518,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1450470</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3364995</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
@@ -1563,7 +1577,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>523440</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1720,18 +1734,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM125"/>
+  <dimension ref="A1:CM129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.140625" style="1" customWidth="1"/>
@@ -1876,6 +1890,12 @@
       <c r="AV2"/>
     </row>
     <row r="3" spans="1:48">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -1905,158 +1925,49 @@
       <c r="AU3"/>
       <c r="AV3"/>
     </row>
-    <row r="4" spans="1:48" customFormat="1" ht="49.5">
-      <c r="A4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L4" t="s">
-        <v>259</v>
-      </c>
-      <c r="M4" t="s">
-        <v>259</v>
-      </c>
-      <c r="N4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O4" t="s">
-        <v>259</v>
-      </c>
-      <c r="P4" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>259</v>
-      </c>
-      <c r="R4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S4" t="s">
-        <v>259</v>
-      </c>
-      <c r="T4" t="s">
-        <v>259</v>
-      </c>
-      <c r="U4" t="s">
-        <v>259</v>
-      </c>
-      <c r="V4" t="s">
-        <v>259</v>
-      </c>
-      <c r="W4" t="s">
-        <v>259</v>
-      </c>
-      <c r="X4" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" customFormat="1" ht="99">
+    <row r="4" spans="1:48">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+    </row>
+    <row r="5" spans="1:48" ht="82.5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>259</v>
@@ -2112,152 +2023,60 @@
       <c r="T5" t="s">
         <v>259</v>
       </c>
-      <c r="U5" t="s">
-        <v>259</v>
-      </c>
-      <c r="V5" t="s">
-        <v>259</v>
-      </c>
-      <c r="W5" t="s">
-        <v>259</v>
-      </c>
-      <c r="X5" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" customFormat="1" ht="66">
-      <c r="A6" t="s">
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+    </row>
+    <row r="6" spans="1:48" customFormat="1" ht="49.5">
+      <c r="A6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I6" t="s">
-        <v>259</v>
-      </c>
-      <c r="J6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" t="s">
-        <v>259</v>
-      </c>
-      <c r="L6" t="s">
-        <v>259</v>
-      </c>
-      <c r="M6" t="s">
-        <v>259</v>
-      </c>
-      <c r="N6" t="s">
-        <v>259</v>
-      </c>
-      <c r="O6" t="s">
-        <v>259</v>
-      </c>
-      <c r="P6" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>259</v>
-      </c>
-      <c r="R6" t="s">
-        <v>259</v>
-      </c>
-      <c r="S6" t="s">
-        <v>259</v>
-      </c>
-      <c r="T6" t="s">
-        <v>259</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
       <c r="U6" t="s">
         <v>259</v>
       </c>
@@ -2343,67 +2162,31 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:48" customFormat="1" ht="82.5">
-      <c r="A7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I7" t="s">
-        <v>259</v>
-      </c>
-      <c r="J7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M7" t="s">
-        <v>259</v>
-      </c>
-      <c r="N7" t="s">
-        <v>259</v>
-      </c>
-      <c r="O7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>259</v>
-      </c>
-      <c r="R7" t="s">
-        <v>259</v>
-      </c>
-      <c r="S7" t="s">
-        <v>259</v>
-      </c>
-      <c r="T7" t="s">
-        <v>259</v>
-      </c>
+    <row r="7" spans="1:48" customFormat="1" ht="99">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
       <c r="U7" t="s">
         <v>259</v>
       </c>
@@ -2489,67 +2272,31 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:48" customFormat="1" ht="49.5">
-      <c r="A8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K8" t="s">
-        <v>259</v>
-      </c>
-      <c r="L8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M8" t="s">
-        <v>259</v>
-      </c>
-      <c r="N8" t="s">
-        <v>259</v>
-      </c>
-      <c r="O8" t="s">
-        <v>259</v>
-      </c>
-      <c r="P8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>259</v>
-      </c>
-      <c r="R8" t="s">
-        <v>259</v>
-      </c>
-      <c r="S8" t="s">
-        <v>259</v>
-      </c>
-      <c r="T8" t="s">
-        <v>259</v>
-      </c>
+    <row r="8" spans="1:48" customFormat="1" ht="66">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
       <c r="U8" t="s">
         <v>259</v>
       </c>
@@ -2635,87 +2382,233 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="132">
+    <row r="9" spans="1:48" customFormat="1" ht="82.5">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-    </row>
-    <row r="10" spans="1:48" ht="99">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" t="s">
+        <v>259</v>
+      </c>
+      <c r="V9" t="s">
+        <v>259</v>
+      </c>
+      <c r="W9" t="s">
+        <v>259</v>
+      </c>
+      <c r="X9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" customFormat="1" ht="49.5">
       <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-    </row>
-    <row r="11" spans="1:48">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" t="s">
+        <v>259</v>
+      </c>
+      <c r="V10" t="s">
+        <v>259</v>
+      </c>
+      <c r="W10" t="s">
+        <v>259</v>
+      </c>
+      <c r="X10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="132">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>168</v>
+      </c>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
@@ -2745,12 +2638,12 @@
       <c r="AU11"/>
       <c r="AV11"/>
     </row>
-    <row r="12" spans="1:48" ht="66">
+    <row r="12" spans="1:48" ht="99">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3"/>
       <c r="U12"/>
@@ -2782,14 +2675,13 @@
       <c r="AU12"/>
       <c r="AV12"/>
     </row>
-    <row r="13" spans="1:48" ht="99">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:48">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -2819,14 +2711,13 @@
       <c r="AU13"/>
       <c r="AV13"/>
     </row>
-    <row r="14" spans="1:48" ht="99">
+    <row r="14" spans="1:48" ht="66">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>167</v>
+      </c>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
@@ -2858,10 +2749,10 @@
     </row>
     <row r="15" spans="1:48" ht="99">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
@@ -2892,12 +2783,12 @@
       <c r="AU15"/>
       <c r="AV15"/>
     </row>
-    <row r="16" spans="1:48" ht="153">
+    <row r="16" spans="1:48" ht="99">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>210</v>
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="U16"/>
       <c r="V16"/>
@@ -2928,14 +2819,13 @@
       <c r="AU16"/>
       <c r="AV16"/>
     </row>
-    <row r="17" spans="1:48" ht="178.5">
+    <row r="17" spans="1:48" ht="99">
       <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -2965,12 +2855,12 @@
       <c r="AU17"/>
       <c r="AV17"/>
     </row>
-    <row r="18" spans="1:48" ht="66">
+    <row r="18" spans="1:48" ht="153">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="U18"/>
       <c r="V18"/>
@@ -3001,14 +2891,10 @@
       <c r="AU18"/>
       <c r="AV18"/>
     </row>
-    <row r="19" spans="1:48" ht="165">
+    <row r="19" spans="1:48" ht="178.5">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>72</v>
+      </c>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -3038,12 +2924,12 @@
       <c r="AU19"/>
       <c r="AV19"/>
     </row>
-    <row r="20" spans="1:48" ht="198">
+    <row r="20" spans="1:48" ht="66">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="U20"/>
       <c r="V20"/>
@@ -3074,12 +2960,12 @@
       <c r="AU20"/>
       <c r="AV20"/>
     </row>
-    <row r="21" spans="1:48" ht="33">
+    <row r="21" spans="1:48" ht="165">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
@@ -3110,12 +2996,12 @@
       <c r="AU21"/>
       <c r="AV21"/>
     </row>
-    <row r="22" spans="1:48" ht="102">
+    <row r="22" spans="1:48" ht="198">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>214</v>
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="U22"/>
       <c r="V22"/>
@@ -3146,12 +3032,12 @@
       <c r="AU22"/>
       <c r="AV22"/>
     </row>
-    <row r="23" spans="1:48" ht="66">
+    <row r="23" spans="1:48" ht="33">
       <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="U23"/>
       <c r="V23"/>
@@ -3182,14 +3068,13 @@
       <c r="AU23"/>
       <c r="AV23"/>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" ht="102">
       <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
@@ -3219,12 +3104,12 @@
       <c r="AU24"/>
       <c r="AV24"/>
     </row>
-    <row r="25" spans="1:48" ht="214.5">
+    <row r="25" spans="1:48" ht="66">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="U25"/>
       <c r="V25"/>
@@ -3255,12 +3140,12 @@
       <c r="AU25"/>
       <c r="AV25"/>
     </row>
-    <row r="26" spans="1:48" ht="297">
+    <row r="26" spans="1:48">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="U26"/>
       <c r="V26"/>
@@ -3291,12 +3176,12 @@
       <c r="AU26"/>
       <c r="AV26"/>
     </row>
-    <row r="27" spans="1:48" ht="297">
+    <row r="27" spans="1:48" ht="214.5">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="U27"/>
       <c r="V27"/>
@@ -3327,12 +3212,12 @@
       <c r="AU27"/>
       <c r="AV27"/>
     </row>
-    <row r="28" spans="1:48" ht="148.5">
+    <row r="28" spans="1:48" ht="297">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="U28"/>
       <c r="V28"/>
@@ -3363,12 +3248,12 @@
       <c r="AU28"/>
       <c r="AV28"/>
     </row>
-    <row r="29" spans="1:48" ht="49.5">
+    <row r="29" spans="1:48" ht="297">
       <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="U29"/>
       <c r="V29"/>
@@ -3399,12 +3284,12 @@
       <c r="AU29"/>
       <c r="AV29"/>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" ht="148.5">
       <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>83</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="U30"/>
       <c r="V30"/>
@@ -3435,12 +3320,12 @@
       <c r="AU30"/>
       <c r="AV30"/>
     </row>
-    <row r="31" spans="1:48" ht="132">
+    <row r="31" spans="1:48" ht="49.5">
       <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>216</v>
+        <v>84</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="U31"/>
       <c r="V31"/>
@@ -3471,12 +3356,12 @@
       <c r="AU31"/>
       <c r="AV31"/>
     </row>
-    <row r="32" spans="1:48" ht="49.5">
+    <row r="32" spans="1:48">
       <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="U32"/>
       <c r="V32"/>
@@ -3507,12 +3392,12 @@
       <c r="AU32"/>
       <c r="AV32"/>
     </row>
-    <row r="33" spans="1:48" ht="49.5">
+    <row r="33" spans="1:48" ht="132">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="U33"/>
       <c r="V33"/>
@@ -3543,12 +3428,66 @@
       <c r="AU33"/>
       <c r="AV33"/>
     </row>
-    <row r="34" spans="1:48" ht="82.5">
-      <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>152</v>
+    <row r="34" spans="1:48" ht="49.5">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>259</v>
+      </c>
+      <c r="H34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="s">
+        <v>259</v>
+      </c>
+      <c r="N34" t="s">
+        <v>259</v>
+      </c>
+      <c r="O34" t="s">
+        <v>259</v>
+      </c>
+      <c r="P34" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>259</v>
+      </c>
+      <c r="R34" t="s">
+        <v>259</v>
+      </c>
+      <c r="S34" t="s">
+        <v>259</v>
+      </c>
+      <c r="T34" t="s">
+        <v>259</v>
       </c>
       <c r="U34"/>
       <c r="V34"/>
@@ -3581,10 +3520,10 @@
     </row>
     <row r="35" spans="1:48" ht="49.5">
       <c r="A35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>217</v>
+        <v>85</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="U35"/>
       <c r="V35"/>
@@ -3615,14 +3554,13 @@
       <c r="AU35"/>
       <c r="AV35"/>
     </row>
-    <row r="36" spans="1:48" ht="165">
+    <row r="36" spans="1:48" ht="82.5">
       <c r="A36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
@@ -3652,12 +3590,12 @@
       <c r="AU36"/>
       <c r="AV36"/>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" ht="49.5">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="U37"/>
       <c r="V37"/>
@@ -3688,12 +3626,12 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="1:48" ht="33">
+    <row r="38" spans="1:48" ht="165">
       <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>155</v>
+        <v>88</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="U38"/>
       <c r="V38"/>
@@ -3724,12 +3662,12 @@
       <c r="AU38"/>
       <c r="AV38"/>
     </row>
-    <row r="39" spans="1:48" ht="33">
+    <row r="39" spans="1:48">
       <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>218</v>
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="U39"/>
       <c r="V39"/>
@@ -3760,12 +3698,12 @@
       <c r="AU39"/>
       <c r="AV39"/>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" ht="33">
       <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>90</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="U40"/>
       <c r="V40"/>
@@ -3796,12 +3734,12 @@
       <c r="AU40"/>
       <c r="AV40"/>
     </row>
-    <row r="41" spans="1:48" ht="49.5">
+    <row r="41" spans="1:48" ht="66">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>269</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -3832,12 +3770,12 @@
       <c r="AU41"/>
       <c r="AV41"/>
     </row>
-    <row r="42" spans="1:48" ht="66">
+    <row r="42" spans="1:48" ht="99">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="U42"/>
       <c r="V42"/>
@@ -3868,12 +3806,12 @@
       <c r="AU42"/>
       <c r="AV42"/>
     </row>
-    <row r="43" spans="1:48" ht="132">
+    <row r="43" spans="1:48" ht="33">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U43"/>
       <c r="V43"/>
@@ -3904,12 +3842,12 @@
       <c r="AU43"/>
       <c r="AV43"/>
     </row>
-    <row r="44" spans="1:48" ht="115.5">
+    <row r="44" spans="1:48">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U44"/>
       <c r="V44"/>
@@ -3940,12 +3878,12 @@
       <c r="AU44"/>
       <c r="AV44"/>
     </row>
-    <row r="45" spans="1:48" ht="115.5">
+    <row r="45" spans="1:48" ht="49.5">
       <c r="A45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>220</v>
+        <v>91</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="U45"/>
       <c r="V45"/>
@@ -3976,12 +3914,12 @@
       <c r="AU45"/>
       <c r="AV45"/>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" ht="66">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="U46"/>
       <c r="V46"/>
@@ -4012,14 +3950,13 @@
       <c r="AU46"/>
       <c r="AV46"/>
     </row>
-    <row r="47" spans="1:48" ht="214.5">
+    <row r="47" spans="1:48" ht="132">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>184</v>
+      </c>
       <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
@@ -4049,12 +3986,12 @@
       <c r="AU47"/>
       <c r="AV47"/>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" ht="115.5">
       <c r="A48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="U48"/>
       <c r="V48"/>
@@ -4085,12 +4022,12 @@
       <c r="AU48"/>
       <c r="AV48"/>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" ht="115.5">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="U49"/>
       <c r="V49"/>
@@ -4123,10 +4060,10 @@
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="U50"/>
       <c r="V50"/>
@@ -4157,13 +4094,14 @@
       <c r="AU50"/>
       <c r="AV50"/>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" ht="214.5">
       <c r="A51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="3"/>
       <c r="U51"/>
       <c r="V51"/>
       <c r="W51"/>
@@ -4194,11 +4132,8 @@
       <c r="AV51"/>
     </row>
     <row r="52" spans="1:48">
-      <c r="A52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>164</v>
+      <c r="A52" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="U52"/>
       <c r="V52"/>
@@ -4229,12 +4164,12 @@
       <c r="AU52"/>
       <c r="AV52"/>
     </row>
-    <row r="53" spans="1:48" ht="49.5">
+    <row r="53" spans="1:48">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="U53"/>
       <c r="V53"/>
@@ -4267,10 +4202,10 @@
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>36</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="U54"/>
       <c r="V54"/>
@@ -4301,12 +4236,12 @@
       <c r="AU54"/>
       <c r="AV54"/>
     </row>
-    <row r="55" spans="1:48" ht="33">
+    <row r="55" spans="1:48">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="U55"/>
       <c r="V55"/>
@@ -4339,10 +4274,10 @@
     </row>
     <row r="56" spans="1:48">
       <c r="A56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>163</v>
+        <v>37</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
@@ -4373,12 +4308,12 @@
       <c r="AU56"/>
       <c r="AV56"/>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" ht="49.5">
       <c r="A57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="U57"/>
       <c r="V57"/>
@@ -4411,11 +4346,12 @@
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
@@ -4445,12 +4381,12 @@
       <c r="AU58"/>
       <c r="AV58"/>
     </row>
-    <row r="59" spans="1:48" ht="66">
+    <row r="59" spans="1:48" ht="33">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="U59"/>
       <c r="V59"/>
@@ -4483,7 +4419,10 @@
     </row>
     <row r="60" spans="1:48">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="U60"/>
       <c r="V60"/>
@@ -4514,12 +4453,12 @@
       <c r="AU60"/>
       <c r="AV60"/>
     </row>
-    <row r="61" spans="1:48" ht="148.5">
+    <row r="61" spans="1:48">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="U61"/>
       <c r="V61"/>
@@ -4552,10 +4491,10 @@
     </row>
     <row r="62" spans="1:48">
       <c r="A62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>34</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="U62"/>
       <c r="V62"/>
@@ -4586,12 +4525,12 @@
       <c r="AU62"/>
       <c r="AV62"/>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" ht="66">
       <c r="A63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>99</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="U63"/>
       <c r="V63"/>
@@ -4622,12 +4561,12 @@
       <c r="AU63"/>
       <c r="AV63"/>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" ht="99">
       <c r="A64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>173</v>
+        <v>100</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="U64"/>
       <c r="V64"/>
@@ -4658,12 +4597,12 @@
       <c r="AU64"/>
       <c r="AV64"/>
     </row>
-    <row r="65" spans="1:48" ht="66">
+    <row r="65" spans="1:48" ht="148.5">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="U65"/>
       <c r="V65"/>
@@ -4694,12 +4633,12 @@
       <c r="AU65"/>
       <c r="AV65"/>
     </row>
-    <row r="66" spans="1:48" ht="49.5">
+    <row r="66" spans="1:48" ht="82.5">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="U66"/>
       <c r="V66"/>
@@ -4730,13 +4669,14 @@
       <c r="AU66"/>
       <c r="AV66"/>
     </row>
-    <row r="67" spans="1:48" ht="115.5">
+    <row r="67" spans="1:48">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C67" s="3"/>
       <c r="U67"/>
       <c r="V67"/>
       <c r="W67"/>
@@ -4766,12 +4706,12 @@
       <c r="AU67"/>
       <c r="AV67"/>
     </row>
-    <row r="68" spans="1:48" ht="33">
+    <row r="68" spans="1:48">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="U68"/>
       <c r="V68"/>
@@ -4802,12 +4742,12 @@
       <c r="AU68"/>
       <c r="AV68"/>
     </row>
-    <row r="69" spans="1:48" ht="148.5">
+    <row r="69" spans="1:48" ht="66">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="U69"/>
       <c r="V69"/>
@@ -4838,12 +4778,12 @@
       <c r="AU69"/>
       <c r="AV69"/>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" ht="49.5">
       <c r="A70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="U70"/>
       <c r="V70"/>
@@ -4874,12 +4814,12 @@
       <c r="AU70"/>
       <c r="AV70"/>
     </row>
-    <row r="71" spans="1:48" ht="66">
+    <row r="71" spans="1:48" ht="115.5">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="U71"/>
       <c r="V71"/>
@@ -4910,12 +4850,12 @@
       <c r="AU71"/>
       <c r="AV71"/>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" ht="33">
       <c r="A72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="U72"/>
       <c r="V72"/>
@@ -4946,13 +4886,31 @@
       <c r="AU72"/>
       <c r="AV72"/>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" ht="148.5">
       <c r="A73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -4983,12 +4941,30 @@
       <c r="AV73"/>
     </row>
     <row r="74" spans="1:48">
-      <c r="A74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5018,13 +4994,31 @@
       <c r="AU74"/>
       <c r="AV74"/>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" ht="66">
       <c r="A75" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5056,10 +5050,10 @@
     </row>
     <row r="76" spans="1:48">
       <c r="A76" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="U76"/>
       <c r="V76"/>
@@ -5092,10 +5086,10 @@
     </row>
     <row r="77" spans="1:48">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="U77"/>
       <c r="V77"/>
@@ -5126,13 +5120,14 @@
       <c r="AU77"/>
       <c r="AV77"/>
     </row>
-    <row r="78" spans="1:48" ht="82.5">
+    <row r="78" spans="1:48" ht="165">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C78" s="3"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5162,12 +5157,12 @@
       <c r="AU78"/>
       <c r="AV78"/>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" ht="66">
       <c r="A79" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>174</v>
+        <v>273</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="U79"/>
       <c r="V79"/>
@@ -5198,12 +5193,12 @@
       <c r="AU79"/>
       <c r="AV79"/>
     </row>
-    <row r="80" spans="1:48" ht="132">
+    <row r="80" spans="1:48" ht="49.5">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="U80"/>
       <c r="V80"/>
@@ -5234,332 +5229,502 @@
       <c r="AU80"/>
       <c r="AV80"/>
     </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+    <row r="81" spans="1:48" ht="82.5">
+      <c r="A81" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" t="s">
+        <v>259</v>
+      </c>
+      <c r="G81" t="s">
+        <v>259</v>
+      </c>
+      <c r="H81" t="s">
+        <v>259</v>
+      </c>
+      <c r="I81" t="s">
+        <v>259</v>
+      </c>
+      <c r="J81" t="s">
+        <v>259</v>
+      </c>
+      <c r="K81" t="s">
+        <v>259</v>
+      </c>
+      <c r="L81" t="s">
+        <v>259</v>
+      </c>
+      <c r="M81" t="s">
+        <v>259</v>
+      </c>
+      <c r="N81" t="s">
+        <v>259</v>
+      </c>
+      <c r="O81" t="s">
+        <v>259</v>
+      </c>
+      <c r="P81" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>259</v>
+      </c>
+      <c r="R81" t="s">
+        <v>259</v>
+      </c>
+      <c r="S81" t="s">
+        <v>259</v>
+      </c>
+      <c r="T81" t="s">
+        <v>259</v>
+      </c>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
+      <c r="AL81"/>
+      <c r="AM81"/>
+      <c r="AN81"/>
+      <c r="AO81"/>
+      <c r="AP81"/>
+      <c r="AQ81"/>
+      <c r="AR81"/>
+      <c r="AS81"/>
+      <c r="AT81"/>
+      <c r="AU81"/>
+      <c r="AV81"/>
+    </row>
+    <row r="82" spans="1:48" ht="82.5">
       <c r="A82" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
-      <c r="A83" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="280.5">
+        <v>206</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
+      <c r="AL82"/>
+      <c r="AM82"/>
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AP82"/>
+      <c r="AQ82"/>
+      <c r="AR82"/>
+      <c r="AS82"/>
+      <c r="AT82"/>
+      <c r="AU82"/>
+      <c r="AV82"/>
+    </row>
+    <row r="83" spans="1:48">
+      <c r="A83" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83" t="s">
+        <v>259</v>
+      </c>
+      <c r="F83" t="s">
+        <v>259</v>
+      </c>
+      <c r="G83" t="s">
+        <v>259</v>
+      </c>
+      <c r="H83" t="s">
+        <v>259</v>
+      </c>
+      <c r="I83" t="s">
+        <v>259</v>
+      </c>
+      <c r="J83" t="s">
+        <v>259</v>
+      </c>
+      <c r="K83" t="s">
+        <v>259</v>
+      </c>
+      <c r="L83" t="s">
+        <v>259</v>
+      </c>
+      <c r="M83" t="s">
+        <v>259</v>
+      </c>
+      <c r="N83" t="s">
+        <v>259</v>
+      </c>
+      <c r="O83" t="s">
+        <v>259</v>
+      </c>
+      <c r="P83" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>259</v>
+      </c>
+      <c r="R83" t="s">
+        <v>259</v>
+      </c>
+      <c r="S83" t="s">
+        <v>259</v>
+      </c>
+      <c r="T83" t="s">
+        <v>259</v>
+      </c>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
+      <c r="AL83"/>
+      <c r="AM83"/>
+      <c r="AN83"/>
+      <c r="AO83"/>
+      <c r="AP83"/>
+      <c r="AQ83"/>
+      <c r="AR83"/>
+      <c r="AS83"/>
+      <c r="AT83"/>
+      <c r="AU83"/>
+      <c r="AV83"/>
+    </row>
+    <row r="84" spans="1:48" ht="132">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
+        <v>256</v>
+      </c>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
+      <c r="AJ84"/>
+      <c r="AK84"/>
+      <c r="AL84"/>
+      <c r="AM84"/>
+      <c r="AN84"/>
+      <c r="AO84"/>
+      <c r="AP84"/>
+      <c r="AQ84"/>
+      <c r="AR84"/>
+      <c r="AS84"/>
+      <c r="AT84"/>
+      <c r="AU84"/>
+      <c r="AV84"/>
+    </row>
+    <row r="85" spans="1:48">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="49.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="165">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="99">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:48" ht="280.5">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="49.5">
+        <v>190</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+    </row>
+    <row r="89" spans="1:48" ht="66">
       <c r="A89" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="82.5">
+        <v>229</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+    </row>
+    <row r="90" spans="1:48" ht="49.5">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="99">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:48" ht="165">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="66">
+        <v>191</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:48" ht="99">
       <c r="A92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-    </row>
-    <row r="93" spans="1:20" ht="363">
-      <c r="A93" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-    </row>
-    <row r="94" spans="1:20" ht="49.5">
+        <v>28</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:48" ht="49.5">
+      <c r="A93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:48" ht="82.5">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-    </row>
-    <row r="95" spans="1:20">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:48" ht="99">
       <c r="A95" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="132">
+        <v>113</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:48" ht="66">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="33">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="363">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="66">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="49.5">
       <c r="A98" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-    </row>
-    <row r="99" spans="1:20" ht="66">
+        <v>57</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-    </row>
-    <row r="100" spans="1:20" ht="148.5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="132">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="165">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="33">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="181.5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="66">
       <c r="A102" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="33">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="66">
       <c r="A103" s="1" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="99">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="148.5">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
@@ -5567,7 +5732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="99">
+    <row r="105" spans="1:20" ht="165">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -5575,7 +5740,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="132">
+    <row r="106" spans="1:20" ht="181.5">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
@@ -5583,7 +5748,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" ht="33">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
@@ -5653,7 +5818,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="66">
+    <row r="109" spans="1:20" ht="99">
       <c r="A109" s="1" t="s">
         <v>122</v>
       </c>
@@ -5661,7 +5826,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" ht="132">
       <c r="A110" s="1" t="s">
         <v>123</v>
       </c>
@@ -5677,7 +5842,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="148.5">
+    <row r="112" spans="1:20" ht="99">
       <c r="A112" s="1" t="s">
         <v>125</v>
       </c>
@@ -5685,7 +5850,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:49" ht="49.5">
+    <row r="113" spans="1:49" ht="66">
       <c r="A113" s="1" t="s">
         <v>126</v>
       </c>
@@ -5693,7 +5858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:49" ht="66">
+    <row r="114" spans="1:49">
       <c r="A114" s="1" t="s">
         <v>127</v>
       </c>
@@ -5701,7 +5866,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:49" ht="66">
+    <row r="115" spans="1:49">
       <c r="A115" s="1" t="s">
         <v>128</v>
       </c>
@@ -5710,163 +5875,198 @@
       </c>
     </row>
     <row r="116" spans="1:49" ht="148.5">
-      <c r="A116" s="1" t="s">
-        <v>129</v>
+      <c r="A116" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="117" spans="1:49" ht="99">
-      <c r="A117" s="1" t="s">
-        <v>130</v>
+        <v>213</v>
+      </c>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:49" ht="49.5">
+      <c r="A117" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>252</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:49" ht="66">
       <c r="A118" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:49" ht="49.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:49" ht="66">
       <c r="A119" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="120" spans="1:49" ht="49.5">
+        <v>265</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:49" ht="148.5">
       <c r="A120" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>197</v>
+        <v>129</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:49" ht="99">
       <c r="A121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:49" ht="66">
+      <c r="A122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:49" ht="49.5">
+      <c r="A123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:49" ht="49.5">
+      <c r="A124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:49" ht="99">
+      <c r="A125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:49" customFormat="1" ht="99">
+      <c r="A126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="AW126" s="1"/>
+    </row>
+    <row r="127" spans="1:49" customFormat="1" ht="66">
+      <c r="A127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="AW127" s="1"/>
+    </row>
+    <row r="128" spans="1:49" customFormat="1" ht="82.5">
+      <c r="A128" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="122" spans="1:49" customFormat="1" ht="99">
-      <c r="A122" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="AW122" s="1"/>
-    </row>
-    <row r="123" spans="1:49" customFormat="1" ht="66">
-      <c r="A123" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
-      <c r="T123" s="1"/>
-      <c r="AW123" s="1"/>
-    </row>
-    <row r="124" spans="1:49" customFormat="1" ht="82.5">
-      <c r="A124" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
-      <c r="T124" s="1"/>
-      <c r="AW124" s="1"/>
-    </row>
-    <row r="125" spans="1:49" customFormat="1" ht="49.5">
-      <c r="A125" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="AW125" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="AW128" s="1"/>
+    </row>
+    <row r="129" spans="1:49" customFormat="1" ht="49.5">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="AW129" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T120" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:T124" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T128">
+      <sortCondition ref="A2:A124"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
